--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H2">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I2">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J2">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>80.45882001317021</v>
+        <v>23.96161909114667</v>
       </c>
       <c r="R2">
-        <v>724.1293801185319</v>
+        <v>215.65457182032</v>
       </c>
       <c r="S2">
-        <v>0.0003889598586577312</v>
+        <v>0.0003698762345324734</v>
       </c>
       <c r="T2">
-        <v>0.0003889598586577312</v>
+        <v>0.0003698762345324734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H3">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I3">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J3">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>84.80657676710298</v>
+        <v>25.926051381765</v>
       </c>
       <c r="R3">
-        <v>763.2591909039269</v>
+        <v>233.334462435885</v>
       </c>
       <c r="S3">
-        <v>0.0004099780994448951</v>
+        <v>0.0004001995952321003</v>
       </c>
       <c r="T3">
-        <v>0.0004099780994448951</v>
+        <v>0.0004001995952321003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H4">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I4">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J4">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>54.79260500952455</v>
+        <v>11.17638083788833</v>
       </c>
       <c r="R4">
-        <v>493.133445085721</v>
+        <v>100.587427540995</v>
       </c>
       <c r="S4">
-        <v>0.0002648823820248048</v>
+        <v>0.0001725207985443024</v>
       </c>
       <c r="T4">
-        <v>0.0002648823820248049</v>
+        <v>0.0001725207985443025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H5">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I5">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J5">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>29.35738869852555</v>
+        <v>8.776503730511665</v>
       </c>
       <c r="R5">
-        <v>264.21649828673</v>
+        <v>78.988533574605</v>
       </c>
       <c r="S5">
-        <v>0.0001419216160126315</v>
+        <v>0.0001354758265647113</v>
       </c>
       <c r="T5">
-        <v>0.0001419216160126315</v>
+        <v>0.0001354758265647113</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4914656666666666</v>
+        <v>0.150245</v>
       </c>
       <c r="H6">
-        <v>1.474397</v>
+        <v>0.450735</v>
       </c>
       <c r="I6">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="J6">
-        <v>0.001412343595284977</v>
+        <v>0.001239828658696866</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>42.73686275943989</v>
+        <v>10.47902022292</v>
       </c>
       <c r="R6">
-        <v>384.631764834959</v>
+        <v>94.31118200628001</v>
       </c>
       <c r="S6">
-        <v>0.0002066016391449143</v>
+        <v>0.0001617562038232788</v>
       </c>
       <c r="T6">
-        <v>0.0002066016391449143</v>
+        <v>0.0001617562038232788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H7">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I7">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J7">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>3.69257839985511</v>
+        <v>3.597206601265778</v>
       </c>
       <c r="R7">
-        <v>33.233205598696</v>
+        <v>32.374859411392</v>
       </c>
       <c r="S7">
-        <v>1.785093010629704E-05</v>
+        <v>5.552718401250034E-05</v>
       </c>
       <c r="T7">
-        <v>1.785093010629704E-05</v>
+        <v>5.552718401250034E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H8">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I8">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J8">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>3.892114419333999</v>
+        <v>3.892114419334</v>
       </c>
       <c r="R8">
-        <v>35.02902977400599</v>
+        <v>35.029029774006</v>
       </c>
       <c r="S8">
-        <v>1.881554159228367E-05</v>
+        <v>6.007943871892643E-05</v>
       </c>
       <c r="T8">
-        <v>1.881554159228367E-05</v>
+        <v>6.007943871892643E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H9">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I9">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J9">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>2.514652709259777</v>
+        <v>1.677839497213556</v>
       </c>
       <c r="R9">
-        <v>22.631874383338</v>
+        <v>15.100555474922</v>
       </c>
       <c r="S9">
-        <v>1.215651636709139E-05</v>
+        <v>2.58994583387107E-05</v>
       </c>
       <c r="T9">
-        <v>1.215651636709139E-05</v>
+        <v>2.589945833871071E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H10">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I10">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J10">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>1.347328476437778</v>
+        <v>1.317561097826444</v>
       </c>
       <c r="R10">
-        <v>12.12595628794</v>
+        <v>11.858049880438</v>
       </c>
       <c r="S10">
-        <v>6.513352963354323E-06</v>
+        <v>2.033813056524954E-05</v>
       </c>
       <c r="T10">
-        <v>6.513352963354323E-06</v>
+        <v>2.033813056524954E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>0.02255533333333333</v>
       </c>
       <c r="H11">
-        <v>0.06766599999999999</v>
+        <v>0.067666</v>
       </c>
       <c r="I11">
-        <v>6.481812003046211E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="J11">
-        <v>6.481812003046212E-05</v>
+        <v>0.0001861276493269486</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>1.961366277522444</v>
+        <v>1.573149150618667</v>
       </c>
       <c r="R11">
-        <v>17.652296497702</v>
+        <v>14.158342355568</v>
       </c>
       <c r="S11">
-        <v>9.481779001435684E-06</v>
+        <v>2.428343769156152E-05</v>
       </c>
       <c r="T11">
-        <v>9.481779001435684E-06</v>
+        <v>2.428343769156153E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H12">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I12">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J12">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>23358.41073300404</v>
+        <v>11641.31364343155</v>
       </c>
       <c r="R12">
-        <v>210225.6965970364</v>
+        <v>104771.8227908839</v>
       </c>
       <c r="S12">
-        <v>0.1129209219783647</v>
+        <v>0.1796975921812767</v>
       </c>
       <c r="T12">
-        <v>0.1129209219783647</v>
+        <v>0.1796975921812767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H13">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I13">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J13">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>24620.63018898078</v>
+        <v>12595.69708218766</v>
       </c>
       <c r="R13">
-        <v>221585.671700827</v>
+        <v>113361.2737396889</v>
       </c>
       <c r="S13">
-        <v>0.1190228347470505</v>
+        <v>0.1944296414340624</v>
       </c>
       <c r="T13">
-        <v>0.1190228347470505</v>
+        <v>0.1944296414340624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H14">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I14">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J14">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>15907.12084435527</v>
+        <v>5429.839871729223</v>
       </c>
       <c r="R14">
-        <v>143164.0875991975</v>
+        <v>48868.55884556301</v>
       </c>
       <c r="S14">
-        <v>0.07689935639447727</v>
+        <v>0.08381606928271156</v>
       </c>
       <c r="T14">
-        <v>0.07689935639447729</v>
+        <v>0.08381606928271156</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H15">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I15">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J15">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>8522.893365281299</v>
+        <v>4263.903546375256</v>
       </c>
       <c r="R15">
-        <v>76706.04028753169</v>
+        <v>38375.1319173773</v>
       </c>
       <c r="S15">
-        <v>0.04120198877105196</v>
+        <v>0.06581844833372097</v>
       </c>
       <c r="T15">
-        <v>0.04120198877105196</v>
+        <v>0.06581844833372097</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>142.6799063333333</v>
+        <v>72.99378066666667</v>
       </c>
       <c r="H16">
-        <v>428.039719</v>
+        <v>218.981342</v>
       </c>
       <c r="I16">
-        <v>0.410024678331027</v>
+        <v>0.6023480393834509</v>
       </c>
       <c r="J16">
-        <v>0.4100246783310271</v>
+        <v>0.6023480393834508</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>12407.15677425565</v>
+        <v>5091.039993033957</v>
       </c>
       <c r="R16">
-        <v>111664.4109683009</v>
+        <v>45819.35993730561</v>
       </c>
       <c r="S16">
-        <v>0.05997957644008262</v>
+        <v>0.0785862881516792</v>
       </c>
       <c r="T16">
-        <v>0.05997957644008262</v>
+        <v>0.0785862881516792</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H17">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I17">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J17">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>32.61235517965022</v>
+        <v>21.608756989568</v>
       </c>
       <c r="R17">
-        <v>293.511196616852</v>
+        <v>194.478812906112</v>
       </c>
       <c r="S17">
-        <v>0.0001576570108671256</v>
+        <v>0.0003335569953693892</v>
       </c>
       <c r="T17">
-        <v>0.0001576570108671256</v>
+        <v>0.0003335569953693892</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H18">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I18">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J18">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>34.37463043388299</v>
+        <v>23.380295875524</v>
       </c>
       <c r="R18">
-        <v>309.3716739049469</v>
+        <v>210.422662879716</v>
       </c>
       <c r="S18">
-        <v>0.000166176329615402</v>
+        <v>0.0003609028157821408</v>
       </c>
       <c r="T18">
-        <v>0.000166176329615402</v>
+        <v>0.0003609028157821408</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H19">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I19">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J19">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>22.20907410146455</v>
+        <v>10.078939016188</v>
       </c>
       <c r="R19">
-        <v>199.881666913181</v>
+        <v>90.71045114569201</v>
       </c>
       <c r="S19">
-        <v>0.0001073647155403312</v>
+        <v>0.0001555804721379389</v>
       </c>
       <c r="T19">
-        <v>0.0001073647155403313</v>
+        <v>0.0001555804721379389</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H20">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I20">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J20">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>11.89942367072555</v>
+        <v>7.914712925252</v>
       </c>
       <c r="R20">
-        <v>107.09481303653</v>
+        <v>71.232416327268</v>
       </c>
       <c r="S20">
-        <v>5.752505627495227E-05</v>
+        <v>0.0001221730552957227</v>
       </c>
       <c r="T20">
-        <v>5.752505627495227E-05</v>
+        <v>0.0001221730552957227</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1992056666666666</v>
+        <v>0.135492</v>
       </c>
       <c r="H21">
-        <v>0.597617</v>
+        <v>0.406476</v>
       </c>
       <c r="I21">
-        <v>0.0005724649076086169</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="J21">
-        <v>0.000572464907608617</v>
+        <v>0.0011180862233296</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>17.32252284269989</v>
+        <v>9.450054298272001</v>
       </c>
       <c r="R21">
-        <v>155.902705584299</v>
+        <v>85.05048868444801</v>
       </c>
       <c r="S21">
-        <v>8.374179531080586E-05</v>
+        <v>0.0001458728847444087</v>
       </c>
       <c r="T21">
-        <v>8.374179531080586E-05</v>
+        <v>0.0001458728847444088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H22">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I22">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J22">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>33493.13002639649</v>
+        <v>7636.07565177939</v>
       </c>
       <c r="R22">
-        <v>301438.1702375684</v>
+        <v>68724.6808660145</v>
       </c>
       <c r="S22">
-        <v>0.1619149164621075</v>
+        <v>0.1178719558950348</v>
       </c>
       <c r="T22">
-        <v>0.1619149164621075</v>
+        <v>0.1178719558950347</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H23">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I23">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J23">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>35302.99974930292</v>
+        <v>8262.099858528516</v>
       </c>
       <c r="R23">
-        <v>317726.9977437262</v>
+        <v>74358.89872675666</v>
       </c>
       <c r="S23">
-        <v>0.1706643198400759</v>
+        <v>0.1275353878792323</v>
       </c>
       <c r="T23">
-        <v>0.1706643198400759</v>
+        <v>0.1275353878792323</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H24">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I24">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J24">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>22808.8833985956</v>
+        <v>3561.682925789668</v>
       </c>
       <c r="R24">
-        <v>205279.9505873604</v>
+        <v>32055.14633210701</v>
       </c>
       <c r="S24">
-        <v>0.1102643571134428</v>
+        <v>0.05497883361631564</v>
       </c>
       <c r="T24">
-        <v>0.1102643571134428</v>
+        <v>0.05497883361631564</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H25">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I25">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J25">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>12220.79613837524</v>
+        <v>2796.891403263852</v>
       </c>
       <c r="R25">
-        <v>109987.1652453772</v>
+        <v>25172.02262937467</v>
       </c>
       <c r="S25">
-        <v>0.05907865834832406</v>
+        <v>0.0431733622298381</v>
       </c>
       <c r="T25">
-        <v>0.05907865834832407</v>
+        <v>0.0431733622298381</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>204.5856933333333</v>
+        <v>47.87999433333334</v>
       </c>
       <c r="H26">
-        <v>613.75708</v>
+        <v>143.639983</v>
       </c>
       <c r="I26">
-        <v>0.5879256950460487</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="J26">
-        <v>0.5879256950460489</v>
+        <v>0.3951079180851957</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>17790.35910653275</v>
+        <v>3339.448426851443</v>
       </c>
       <c r="R26">
-        <v>160113.2319587948</v>
+        <v>30055.03584166299</v>
       </c>
       <c r="S26">
-        <v>0.08600344328209857</v>
+        <v>0.05154837846477488</v>
       </c>
       <c r="T26">
-        <v>0.08600344328209857</v>
+        <v>0.05154837846477488</v>
       </c>
     </row>
   </sheetData>
